--- a/VereitSuite/VereitApp/testEnvironmentData/datacmproject.xlsx
+++ b/VereitSuite/VereitApp/testEnvironmentData/datacmproject.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationNG\FitNesseRoot\AutomationNg\VereitSuite\VereitApp\testEnvironmentData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationNG\FitNesseRoot\AutomationNg\VereitSuite\VereitApp\testEnvironmentData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cmprojectsheet" sheetId="1" r:id="rId1"/>
+    <sheet name="maintenancerequest" sheetId="3" r:id="rId2"/>
+    <sheet name="bidapprover" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t xml:space="preserve">building </t>
   </si>
@@ -86,37 +88,73 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Indcomm Asset Manager</t>
+    <t>Capital Improvement</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Contract Agreement Type</t>
+  </si>
+  <si>
+    <t>Master Agreement</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>Indecomm Property Mananger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indecomm Construction Manager</t>
+  </si>
+  <si>
+    <t>Inde&amp;Co SR-Bangalore</t>
   </si>
   <si>
     <t>KK MRI Property</t>
   </si>
   <si>
-    <t>Capital Improvement</t>
-  </si>
-  <si>
-    <t>Municipality</t>
-  </si>
-  <si>
-    <t>Contract Agreement Type</t>
-  </si>
-  <si>
-    <t>Master Agreement</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>Replacement</t>
-  </si>
-  <si>
-    <t>Indecomm Property Mananger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indecomm Construction Manager</t>
-  </si>
-  <si>
-    <t>Inde&amp;Co SR-Bangalore</t>
+    <t>Indecomm Asset Manager</t>
+  </si>
+  <si>
+    <t>Indecomm VP</t>
+  </si>
+  <si>
+    <t>Indecomm SVP</t>
+  </si>
+  <si>
+    <t>recordtype</t>
+  </si>
+  <si>
+    <t>Maintenance Request</t>
+  </si>
+  <si>
+    <t>construction manager</t>
+  </si>
+  <si>
+    <t>property manager</t>
+  </si>
+  <si>
+    <t>asset manager</t>
+  </si>
+  <si>
+    <t>VP/Director</t>
+  </si>
+  <si>
+    <t>SVP</t>
+  </si>
+  <si>
+    <t>propertymanager</t>
+  </si>
+  <si>
+    <t>assetmanager</t>
+  </si>
+  <si>
+    <t>con2manager</t>
   </si>
 </sst>
 </file>
@@ -126,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +179,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +212,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,8 +225,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -538,58 +595,279 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
+      <c r="A2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>2016</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42651</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43020</v>
+      </c>
+      <c r="L2">
+        <v>100001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://arcp--stage.cs51.my.salesforce.com/a3W4B0000000Mf5"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://arcp--stage.cs51.my.salesforce.com/a3W4B0000000Mrz"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
         <v>2016</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>42651</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>43020</v>
       </c>
-      <c r="L2">
-        <v>15000</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>100001</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://arcp--stage.cs51.my.salesforce.com/a3W4B0000000Mf5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/VereitSuite/VereitApp/testEnvironmentData/datacmproject.xlsx
+++ b/VereitSuite/VereitApp/testEnvironmentData/datacmproject.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cmprojectsheet" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>43020</v>
       </c>
       <c r="L2">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -669,14 +669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -758,7 +758,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -791,7 +791,7 @@
         <v>43020</v>
       </c>
       <c r="M2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
@@ -814,7 +814,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://arcp--stage.cs51.my.salesforce.com/a3W4B0000000Mf5"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://arcp--stage.cs51.my.salesforce.com/a3W4B0000000Mrz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
